--- a/webpage plan.xlsx
+++ b/webpage plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\friminutt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\friminutt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{ABCC1279-0522-4AFE-AA3A-6F4C7A77537F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20494" windowHeight="7534" xr2:uid="{ABCC1279-0522-4AFE-AA3A-6F4C7A77537F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -483,19 +483,21 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.3828125" customWidth="1"/>
+    <col min="2" max="2" width="24.3828125" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="21.53515625" customWidth="1"/>
+    <col min="5" max="9" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,7 +524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -533,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -544,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -552,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
